--- a/outputs-r202/test-p__Eremiobacterota.xlsx
+++ b/outputs-r202/test-p__Eremiobacterota.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>RUG284.fasta</t>
+  </si>
+  <si>
     <t>RUG369.fasta</t>
+  </si>
+  <si>
+    <t>RUG432.fasta</t>
   </si>
   <si>
     <t>1-c__Eremiobacteria</t>
@@ -79,12 +85,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="19.140625" customWidth="true"/>
-    <col min="3" max="3" width="14.140625" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="13" customWidth="true"/>
     <col min="5" max="5" width="10.28515625" customWidth="true"/>
   </cols>
@@ -94,16 +100,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -123,6 +129,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.80585941995905519</v>
+      </c>
+      <c r="C3">
+        <v>2.5865122617361691e-14</v>
+      </c>
+      <c r="D3">
+        <v>0.19414058004091891</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>